--- a/src/data/others/Categories.xlsx
+++ b/src/data/others/Categories.xlsx
@@ -1214,7 +1214,7 @@
   <x:dimension ref="A1:O121"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="P9" activeCellId="0" sqref="P9:P9"/>
+      <x:selection activeCell="K62" activeCellId="0" sqref="K62:K62"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
